--- a/DB物理設計_baserBlog.xlsx
+++ b/DB物理設計_baserBlog.xlsx
@@ -1,32 +1,41 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="21721"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="27309"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ryuring/Documents/Projects/basercms-docs/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="15540" tabRatio="836" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="38400" windowHeight="23460" tabRatio="836" activeTab="4"/>
   </bookViews>
   <sheets>
-    <sheet name="blog_categories" sheetId="1" r:id="rId1"/>
-    <sheet name="blog_comments" sheetId="9" r:id="rId2"/>
-    <sheet name="blog_configs" sheetId="22" r:id="rId3"/>
-    <sheet name="blog_contents" sheetId="10" r:id="rId4"/>
-    <sheet name="blog_posts" sheetId="20" r:id="rId5"/>
-    <sheet name="blog_posts_blog_tags" sheetId="12" r:id="rId6"/>
-    <sheet name="blog_tags" sheetId="13" r:id="rId7"/>
+    <sheet name="更新履歴" sheetId="23" r:id="rId1"/>
+    <sheet name="blog_categories" sheetId="1" r:id="rId2"/>
+    <sheet name="blog_comments" sheetId="9" r:id="rId3"/>
+    <sheet name="blog_configs" sheetId="22" r:id="rId4"/>
+    <sheet name="blog_contents" sheetId="10" r:id="rId5"/>
+    <sheet name="blog_posts" sheetId="20" r:id="rId6"/>
+    <sheet name="blog_posts_blog_tags" sheetId="12" r:id="rId7"/>
+    <sheet name="blog_tags" sheetId="13" r:id="rId8"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Titles" localSheetId="0">blog_categories!$1:$5</definedName>
-    <definedName name="_xlnm.Print_Titles" localSheetId="1">blog_comments!$1:$5</definedName>
-    <definedName name="_xlnm.Print_Titles" localSheetId="2">blog_configs!$1:$5</definedName>
-    <definedName name="_xlnm.Print_Titles" localSheetId="3">blog_contents!$1:$5</definedName>
-    <definedName name="_xlnm.Print_Titles" localSheetId="4">blog_posts!$1:$5</definedName>
-    <definedName name="_xlnm.Print_Titles" localSheetId="5">blog_posts_blog_tags!$1:$5</definedName>
-    <definedName name="_xlnm.Print_Titles" localSheetId="6">blog_tags!$1:$5</definedName>
+    <definedName name="_xlnm.Print_Titles" localSheetId="1">blog_categories!$1:$5</definedName>
+    <definedName name="_xlnm.Print_Titles" localSheetId="2">blog_comments!$1:$5</definedName>
+    <definedName name="_xlnm.Print_Titles" localSheetId="3">blog_configs!$1:$5</definedName>
+    <definedName name="_xlnm.Print_Titles" localSheetId="4">blog_contents!$1:$5</definedName>
+    <definedName name="_xlnm.Print_Titles" localSheetId="5">blog_posts!$1:$5</definedName>
+    <definedName name="_xlnm.Print_Titles" localSheetId="6">blog_posts_blog_tags!$1:$5</definedName>
+    <definedName name="_xlnm.Print_Titles" localSheetId="7">blog_tags!$1:$5</definedName>
   </definedNames>
   <calcPr calcId="140001" concurrentCalc="0"/>
   <fileRecoveryPr autoRecover="0"/>
   <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
     </ext>
@@ -413,7 +422,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="750" uniqueCount="269">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="757" uniqueCount="273">
   <si>
     <t>-</t>
     <phoneticPr fontId="2"/>
@@ -1871,6 +1880,22 @@
   </si>
   <si>
     <t>ブログタグID</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>4.0.0</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>blog_contents 構造変更</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>削除。contents に移行。</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>第4.0.0版　＜2016年08月18日更新＞</t>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -1916,6 +1941,7 @@
       <b/>
       <sz val="12"/>
       <name val="ＭＳ Ｐゴシック"/>
+      <family val="3"/>
       <charset val="128"/>
     </font>
     <font>
@@ -1942,7 +1968,7 @@
       <charset val="128"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1961,6 +1987,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1" tint="0.499984740745262"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="34">
     <border>
@@ -2417,7 +2449,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="95">
+  <cellXfs count="112">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2678,6 +2710,57 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="31" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="20" fontId="3" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -2777,6 +2860,11 @@
       <rgbColor rgb="00333333"/>
     </indexedColors>
   </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -3101,6 +3189,40 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr enableFormatConditionsCalculation="0">
+    <tabColor theme="9" tint="-0.249977111117893"/>
+  </sheetPr>
+  <dimension ref="A1:C1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C57" sqref="C57"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="12" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="118.83203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A1" s="87">
+        <v>42600</v>
+      </c>
+      <c r="B1" t="s">
+        <v>269</v>
+      </c>
+      <c r="C1" t="s">
+        <v>270</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L20"/>
   <sheetViews>
@@ -3108,7 +3230,7 @@
       <selection activeCell="A20" sqref="A20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="12" defaultColWidth="9" defaultRowHeight="13" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="12" defaultColWidth="9" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="4.6640625" style="2" customWidth="1"/>
     <col min="2" max="2" width="6.6640625" style="2" bestFit="1" customWidth="1"/>
@@ -3124,7 +3246,7 @@
     <col min="13" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="18">
+    <row r="1" spans="1:12" ht="15" x14ac:dyDescent="0.15">
       <c r="A1" s="24" t="s">
         <v>11</v>
       </c>
@@ -3133,24 +3255,24 @@
         <v>265</v>
       </c>
     </row>
-    <row r="2" spans="1:12">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.15">
       <c r="L2" s="3"/>
     </row>
-    <row r="3" spans="1:12" ht="18" customHeight="1">
-      <c r="A3" s="90" t="s">
+    <row r="3" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="107" t="s">
         <v>24</v>
       </c>
-      <c r="B3" s="90"/>
+      <c r="B3" s="107"/>
       <c r="C3" s="26" t="s">
         <v>154</v>
       </c>
       <c r="D3" s="30" t="s">
         <v>23</v>
       </c>
-      <c r="E3" s="87" t="s">
+      <c r="E3" s="104" t="s">
         <v>21</v>
       </c>
-      <c r="F3" s="87"/>
+      <c r="F3" s="104"/>
       <c r="G3" s="31"/>
       <c r="H3" s="31"/>
       <c r="I3" s="32"/>
@@ -3158,21 +3280,21 @@
       <c r="K3" s="4"/>
       <c r="L3" s="25"/>
     </row>
-    <row r="4" spans="1:12" ht="18" customHeight="1">
-      <c r="A4" s="90" t="s">
+    <row r="4" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="107" t="s">
         <v>25</v>
       </c>
-      <c r="B4" s="90"/>
+      <c r="B4" s="107"/>
       <c r="C4" s="26" t="s">
         <v>37</v>
       </c>
       <c r="D4" s="30" t="s">
         <v>12</v>
       </c>
-      <c r="E4" s="87" t="s">
+      <c r="E4" s="104" t="s">
         <v>156</v>
       </c>
-      <c r="F4" s="87"/>
+      <c r="F4" s="104"/>
       <c r="G4" s="31"/>
       <c r="H4" s="31"/>
       <c r="I4" s="32"/>
@@ -3180,7 +3302,7 @@
       <c r="K4" s="4"/>
       <c r="L4" s="25"/>
     </row>
-    <row r="5" spans="1:12" ht="14" thickBot="1">
+    <row r="5" spans="1:12" ht="14" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A5" s="56"/>
       <c r="B5" s="56"/>
       <c r="C5" s="56"/>
@@ -3193,27 +3315,27 @@
       <c r="J5" s="4"/>
       <c r="K5" s="4"/>
     </row>
-    <row r="6" spans="1:12" ht="26.25" customHeight="1">
-      <c r="A6" s="88" t="s">
+    <row r="6" spans="1:12" ht="26.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A6" s="105" t="s">
         <v>39</v>
       </c>
-      <c r="B6" s="89"/>
-      <c r="C6" s="89"/>
+      <c r="B6" s="106"/>
+      <c r="C6" s="106"/>
       <c r="D6" s="42" t="s">
         <v>60</v>
       </c>
-      <c r="E6" s="91" t="s">
+      <c r="E6" s="108" t="s">
         <v>189</v>
       </c>
-      <c r="F6" s="92"/>
-      <c r="G6" s="92"/>
-      <c r="H6" s="92"/>
-      <c r="I6" s="92"/>
-      <c r="J6" s="92"/>
-      <c r="K6" s="92"/>
-      <c r="L6" s="93"/>
-    </row>
-    <row r="7" spans="1:12" ht="21" customHeight="1">
+      <c r="F6" s="109"/>
+      <c r="G6" s="109"/>
+      <c r="H6" s="109"/>
+      <c r="I6" s="109"/>
+      <c r="J6" s="109"/>
+      <c r="K6" s="109"/>
+      <c r="L6" s="110"/>
+    </row>
+    <row r="7" spans="1:12" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="43" t="s">
         <v>6</v>
       </c>
@@ -3251,7 +3373,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="8" spans="1:12" ht="15" customHeight="1">
+    <row r="8" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="45">
         <v>1</v>
       </c>
@@ -3285,7 +3407,7 @@
       </c>
       <c r="L8" s="46"/>
     </row>
-    <row r="9" spans="1:12" ht="15" customHeight="1">
+    <row r="9" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="45">
         <v>2</v>
       </c>
@@ -3319,7 +3441,7 @@
       </c>
       <c r="L9" s="47"/>
     </row>
-    <row r="10" spans="1:12" ht="15" customHeight="1">
+    <row r="10" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="45">
         <v>3</v>
       </c>
@@ -3353,7 +3475,7 @@
       </c>
       <c r="L10" s="47"/>
     </row>
-    <row r="11" spans="1:12" ht="15" customHeight="1">
+    <row r="11" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="45">
         <v>4</v>
       </c>
@@ -3387,7 +3509,7 @@
       </c>
       <c r="L11" s="47"/>
     </row>
-    <row r="12" spans="1:12">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A12" s="45">
         <v>5</v>
       </c>
@@ -3421,7 +3543,7 @@
       </c>
       <c r="L12" s="47"/>
     </row>
-    <row r="13" spans="1:12" ht="15" customHeight="1">
+    <row r="13" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="45">
         <v>6</v>
       </c>
@@ -3457,7 +3579,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="14" spans="1:12">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A14" s="45">
         <v>7</v>
       </c>
@@ -3491,7 +3613,7 @@
       </c>
       <c r="L14" s="47"/>
     </row>
-    <row r="15" spans="1:12" ht="15" customHeight="1">
+    <row r="15" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="45">
         <v>8</v>
       </c>
@@ -3527,7 +3649,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="16" spans="1:12" ht="15" customHeight="1">
+    <row r="16" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="45">
         <v>9</v>
       </c>
@@ -3563,7 +3685,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="17" spans="1:12" ht="49">
+    <row r="17" spans="1:12" ht="52" x14ac:dyDescent="0.15">
       <c r="A17" s="45">
         <v>10</v>
       </c>
@@ -3599,7 +3721,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="18" spans="1:12" ht="15" customHeight="1">
+    <row r="18" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="45">
         <v>11</v>
       </c>
@@ -3633,7 +3755,7 @@
       </c>
       <c r="L18" s="48"/>
     </row>
-    <row r="19" spans="1:12" ht="15" customHeight="1" thickBot="1">
+    <row r="19" spans="1:12" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A19" s="57">
         <v>12</v>
       </c>
@@ -3667,7 +3789,7 @@
       </c>
       <c r="L19" s="60"/>
     </row>
-    <row r="20" spans="1:12">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A20" s="12"/>
       <c r="B20" s="12"/>
       <c r="C20" s="13"/>
@@ -3700,13 +3822,13 @@
   <legacyDrawing r:id="rId1"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="1" OnePage="0" WScale="0"/>
+      <mx:PLV Mode="1" OnePage="0" WScale="100"/>
     </ext>
   </extLst>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L18"/>
   <sheetViews>
@@ -3714,7 +3836,7 @@
       <selection activeCell="L2" sqref="L2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="12" defaultColWidth="9" defaultRowHeight="13" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="12" defaultColWidth="9" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="4.6640625" style="2" customWidth="1"/>
     <col min="2" max="2" width="6.6640625" style="2" bestFit="1" customWidth="1"/>
@@ -3730,7 +3852,7 @@
     <col min="13" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="18">
+    <row r="1" spans="1:12" ht="15" x14ac:dyDescent="0.15">
       <c r="A1" s="24" t="s">
         <v>11</v>
       </c>
@@ -3739,24 +3861,24 @@
         <v>266</v>
       </c>
     </row>
-    <row r="2" spans="1:12">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.15">
       <c r="L2" s="3"/>
     </row>
-    <row r="3" spans="1:12" ht="18" customHeight="1">
-      <c r="A3" s="90" t="s">
+    <row r="3" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="107" t="s">
         <v>24</v>
       </c>
-      <c r="B3" s="90"/>
+      <c r="B3" s="107"/>
       <c r="C3" s="26" t="s">
         <v>155</v>
       </c>
       <c r="D3" s="30" t="s">
         <v>23</v>
       </c>
-      <c r="E3" s="87" t="s">
+      <c r="E3" s="104" t="s">
         <v>21</v>
       </c>
-      <c r="F3" s="87"/>
+      <c r="F3" s="104"/>
       <c r="G3" s="31"/>
       <c r="H3" s="31"/>
       <c r="I3" s="32"/>
@@ -3764,21 +3886,21 @@
       <c r="K3" s="4"/>
       <c r="L3" s="25"/>
     </row>
-    <row r="4" spans="1:12" ht="18" customHeight="1">
-      <c r="A4" s="90" t="s">
+    <row r="4" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="107" t="s">
         <v>25</v>
       </c>
-      <c r="B4" s="90"/>
+      <c r="B4" s="107"/>
       <c r="C4" s="26" t="s">
         <v>37</v>
       </c>
       <c r="D4" s="30" t="s">
         <v>12</v>
       </c>
-      <c r="E4" s="87" t="s">
+      <c r="E4" s="104" t="s">
         <v>157</v>
       </c>
-      <c r="F4" s="87"/>
+      <c r="F4" s="104"/>
       <c r="G4" s="31"/>
       <c r="H4" s="31"/>
       <c r="I4" s="32"/>
@@ -3786,7 +3908,7 @@
       <c r="K4" s="4"/>
       <c r="L4" s="25"/>
     </row>
-    <row r="5" spans="1:12" ht="14" thickBot="1">
+    <row r="5" spans="1:12" ht="14" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A5" s="56"/>
       <c r="B5" s="56"/>
       <c r="C5" s="56"/>
@@ -3799,27 +3921,27 @@
       <c r="J5" s="4"/>
       <c r="K5" s="4"/>
     </row>
-    <row r="6" spans="1:12" ht="26.25" customHeight="1">
-      <c r="A6" s="88" t="s">
+    <row r="6" spans="1:12" ht="26.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A6" s="105" t="s">
         <v>61</v>
       </c>
-      <c r="B6" s="89"/>
-      <c r="C6" s="89"/>
+      <c r="B6" s="106"/>
+      <c r="C6" s="106"/>
       <c r="D6" s="42" t="s">
         <v>91</v>
       </c>
-      <c r="E6" s="94" t="s">
+      <c r="E6" s="111" t="s">
         <v>190</v>
       </c>
-      <c r="F6" s="92"/>
-      <c r="G6" s="92"/>
-      <c r="H6" s="92"/>
-      <c r="I6" s="92"/>
-      <c r="J6" s="92"/>
-      <c r="K6" s="92"/>
-      <c r="L6" s="93"/>
-    </row>
-    <row r="7" spans="1:12" ht="21" customHeight="1">
+      <c r="F6" s="109"/>
+      <c r="G6" s="109"/>
+      <c r="H6" s="109"/>
+      <c r="I6" s="109"/>
+      <c r="J6" s="109"/>
+      <c r="K6" s="109"/>
+      <c r="L6" s="110"/>
+    </row>
+    <row r="7" spans="1:12" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="43" t="s">
         <v>62</v>
       </c>
@@ -3857,7 +3979,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="8" spans="1:12" ht="15" customHeight="1">
+    <row r="8" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="45">
         <v>1</v>
       </c>
@@ -3891,7 +4013,7 @@
       </c>
       <c r="L8" s="46"/>
     </row>
-    <row r="9" spans="1:12">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A9" s="45">
         <v>2</v>
       </c>
@@ -3925,7 +4047,7 @@
       </c>
       <c r="L9" s="47"/>
     </row>
-    <row r="10" spans="1:12" ht="15" customHeight="1">
+    <row r="10" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="45">
         <v>3</v>
       </c>
@@ -3959,7 +4081,7 @@
       </c>
       <c r="L10" s="47"/>
     </row>
-    <row r="11" spans="1:12" ht="15" customHeight="1">
+    <row r="11" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="45">
         <v>4</v>
       </c>
@@ -3993,7 +4115,7 @@
       </c>
       <c r="L11" s="47"/>
     </row>
-    <row r="12" spans="1:12" ht="15" customHeight="1">
+    <row r="12" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="45">
         <v>5</v>
       </c>
@@ -4027,7 +4149,7 @@
       </c>
       <c r="L12" s="47"/>
     </row>
-    <row r="13" spans="1:12">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A13" s="45">
         <v>6</v>
       </c>
@@ -4061,7 +4183,7 @@
       </c>
       <c r="L13" s="47"/>
     </row>
-    <row r="14" spans="1:12">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A14" s="45">
         <v>7</v>
       </c>
@@ -4095,7 +4217,7 @@
       </c>
       <c r="L14" s="47"/>
     </row>
-    <row r="15" spans="1:12">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A15" s="45">
         <v>8</v>
       </c>
@@ -4129,7 +4251,7 @@
       </c>
       <c r="L15" s="47"/>
     </row>
-    <row r="16" spans="1:12" ht="25">
+    <row r="16" spans="1:12" ht="26" x14ac:dyDescent="0.15">
       <c r="A16" s="45">
         <v>9</v>
       </c>
@@ -4163,7 +4285,7 @@
       </c>
       <c r="L16" s="47"/>
     </row>
-    <row r="17" spans="1:12">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A17" s="45">
         <v>10</v>
       </c>
@@ -4197,7 +4319,7 @@
       </c>
       <c r="L17" s="47"/>
     </row>
-    <row r="18" spans="1:12" ht="14" thickBot="1">
+    <row r="18" spans="1:12" ht="14" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A18" s="49">
         <v>11</v>
       </c>
@@ -4250,13 +4372,13 @@
   <legacyDrawing r:id="rId1"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="1" OnePage="0" WScale="0"/>
+      <mx:PLV Mode="1" OnePage="0" WScale="100"/>
     </ext>
   </extLst>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L30"/>
   <sheetViews>
@@ -4264,7 +4386,7 @@
       <selection activeCell="L2" sqref="L2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="12" defaultColWidth="9" defaultRowHeight="13" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="12" defaultColWidth="9" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="4.6640625" style="2" customWidth="1"/>
     <col min="2" max="2" width="6.6640625" style="2" bestFit="1" customWidth="1"/>
@@ -4280,7 +4402,7 @@
     <col min="13" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="18">
+    <row r="1" spans="1:12" ht="15" x14ac:dyDescent="0.15">
       <c r="A1" s="24" t="s">
         <v>11</v>
       </c>
@@ -4289,24 +4411,24 @@
         <v>266</v>
       </c>
     </row>
-    <row r="2" spans="1:12">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.15">
       <c r="L2" s="3"/>
     </row>
-    <row r="3" spans="1:12" ht="18" customHeight="1">
-      <c r="A3" s="90" t="s">
+    <row r="3" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="107" t="s">
         <v>24</v>
       </c>
-      <c r="B3" s="90"/>
+      <c r="B3" s="107"/>
       <c r="C3" s="26" t="s">
         <v>155</v>
       </c>
       <c r="D3" s="30" t="s">
         <v>23</v>
       </c>
-      <c r="E3" s="87" t="s">
+      <c r="E3" s="104" t="s">
         <v>21</v>
       </c>
-      <c r="F3" s="87"/>
+      <c r="F3" s="104"/>
       <c r="G3" s="31"/>
       <c r="H3" s="31"/>
       <c r="I3" s="32"/>
@@ -4314,21 +4436,21 @@
       <c r="K3" s="4"/>
       <c r="L3" s="25"/>
     </row>
-    <row r="4" spans="1:12" ht="18" customHeight="1">
-      <c r="A4" s="90" t="s">
+    <row r="4" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="107" t="s">
         <v>25</v>
       </c>
-      <c r="B4" s="90"/>
+      <c r="B4" s="107"/>
       <c r="C4" s="26" t="s">
         <v>37</v>
       </c>
       <c r="D4" s="30" t="s">
         <v>12</v>
       </c>
-      <c r="E4" s="87" t="s">
+      <c r="E4" s="104" t="s">
         <v>157</v>
       </c>
-      <c r="F4" s="87"/>
+      <c r="F4" s="104"/>
       <c r="G4" s="31"/>
       <c r="H4" s="31"/>
       <c r="I4" s="32"/>
@@ -4336,7 +4458,7 @@
       <c r="K4" s="4"/>
       <c r="L4" s="25"/>
     </row>
-    <row r="5" spans="1:12" ht="14" thickBot="1">
+    <row r="5" spans="1:12" ht="14" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A5" s="56"/>
       <c r="B5" s="56"/>
       <c r="C5" s="56"/>
@@ -4349,27 +4471,27 @@
       <c r="J5" s="4"/>
       <c r="K5" s="4"/>
     </row>
-    <row r="6" spans="1:12" ht="26.25" customHeight="1">
-      <c r="A6" s="88" t="s">
+    <row r="6" spans="1:12" ht="26.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A6" s="105" t="s">
         <v>191</v>
       </c>
-      <c r="B6" s="89"/>
-      <c r="C6" s="89"/>
+      <c r="B6" s="106"/>
+      <c r="C6" s="106"/>
       <c r="D6" s="42" t="s">
         <v>92</v>
       </c>
-      <c r="E6" s="94" t="s">
+      <c r="E6" s="111" t="s">
         <v>192</v>
       </c>
-      <c r="F6" s="92"/>
-      <c r="G6" s="92"/>
-      <c r="H6" s="92"/>
-      <c r="I6" s="92"/>
-      <c r="J6" s="92"/>
-      <c r="K6" s="92"/>
-      <c r="L6" s="93"/>
-    </row>
-    <row r="7" spans="1:12" ht="21" customHeight="1">
+      <c r="F6" s="109"/>
+      <c r="G6" s="109"/>
+      <c r="H6" s="109"/>
+      <c r="I6" s="109"/>
+      <c r="J6" s="109"/>
+      <c r="K6" s="109"/>
+      <c r="L6" s="110"/>
+    </row>
+    <row r="7" spans="1:12" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="43" t="s">
         <v>62</v>
       </c>
@@ -4407,7 +4529,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="8" spans="1:12" ht="15" customHeight="1" thickBot="1">
+    <row r="8" spans="1:12" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A8" s="57">
         <v>1</v>
       </c>
@@ -4441,7 +4563,7 @@
       </c>
       <c r="L8" s="60"/>
     </row>
-    <row r="9" spans="1:12" ht="15" customHeight="1">
+    <row r="9" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="12"/>
       <c r="B9" s="36"/>
       <c r="C9" s="12"/>
@@ -4455,67 +4577,67 @@
       <c r="K9" s="61"/>
       <c r="L9" s="38"/>
     </row>
-    <row r="10" spans="1:12">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.15">
       <c r="I10" s="65"/>
     </row>
-    <row r="11" spans="1:12">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.15">
       <c r="I11" s="65"/>
     </row>
-    <row r="12" spans="1:12">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.15">
       <c r="I12" s="65"/>
     </row>
-    <row r="13" spans="1:12">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.15">
       <c r="I13" s="65"/>
     </row>
-    <row r="14" spans="1:12">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.15">
       <c r="I14" s="65"/>
     </row>
-    <row r="15" spans="1:12">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.15">
       <c r="I15" s="65"/>
     </row>
-    <row r="16" spans="1:12">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.15">
       <c r="I16" s="65"/>
     </row>
-    <row r="17" spans="9:9">
+    <row r="17" spans="9:9" x14ac:dyDescent="0.15">
       <c r="I17" s="65"/>
     </row>
-    <row r="18" spans="9:9">
+    <row r="18" spans="9:9" x14ac:dyDescent="0.15">
       <c r="I18" s="65"/>
     </row>
-    <row r="19" spans="9:9">
+    <row r="19" spans="9:9" x14ac:dyDescent="0.15">
       <c r="I19" s="65"/>
     </row>
-    <row r="20" spans="9:9">
+    <row r="20" spans="9:9" x14ac:dyDescent="0.15">
       <c r="I20" s="65"/>
     </row>
-    <row r="21" spans="9:9">
+    <row r="21" spans="9:9" x14ac:dyDescent="0.15">
       <c r="I21" s="65"/>
     </row>
-    <row r="22" spans="9:9">
+    <row r="22" spans="9:9" x14ac:dyDescent="0.15">
       <c r="I22" s="65"/>
     </row>
-    <row r="23" spans="9:9">
+    <row r="23" spans="9:9" x14ac:dyDescent="0.15">
       <c r="I23" s="65"/>
     </row>
-    <row r="24" spans="9:9">
+    <row r="24" spans="9:9" x14ac:dyDescent="0.15">
       <c r="I24" s="65"/>
     </row>
-    <row r="25" spans="9:9">
+    <row r="25" spans="9:9" x14ac:dyDescent="0.15">
       <c r="I25" s="65"/>
     </row>
-    <row r="26" spans="9:9">
+    <row r="26" spans="9:9" x14ac:dyDescent="0.15">
       <c r="I26" s="65"/>
     </row>
-    <row r="27" spans="9:9">
+    <row r="27" spans="9:9" x14ac:dyDescent="0.15">
       <c r="I27" s="65"/>
     </row>
-    <row r="28" spans="9:9">
+    <row r="28" spans="9:9" x14ac:dyDescent="0.15">
       <c r="I28" s="65"/>
     </row>
-    <row r="29" spans="9:9">
+    <row r="29" spans="9:9" x14ac:dyDescent="0.15">
       <c r="I29" s="65"/>
     </row>
-    <row r="30" spans="9:9">
+    <row r="30" spans="9:9" x14ac:dyDescent="0.15">
       <c r="I30" s="65"/>
     </row>
   </sheetData>
@@ -4537,21 +4659,24 @@
   <legacyDrawing r:id="rId1"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="1" OnePage="0" WScale="0"/>
+      <mx:PLV Mode="1" OnePage="0" WScale="100"/>
     </ext>
   </extLst>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr enableFormatConditionsCalculation="0">
+    <tabColor theme="9" tint="-0.249977111117893"/>
+  </sheetPr>
   <dimension ref="A1:L41"/>
   <sheetViews>
-    <sheetView view="pageLayout" workbookViewId="0">
-      <selection activeCell="A28" sqref="A28"/>
+    <sheetView tabSelected="1" view="pageLayout" zoomScale="140" workbookViewId="0">
+      <selection activeCell="L2" sqref="L2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="12" defaultColWidth="9" defaultRowHeight="13" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="12" defaultColWidth="9" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="4.6640625" style="2" customWidth="1"/>
     <col min="2" max="2" width="6.6640625" style="2" bestFit="1" customWidth="1"/>
@@ -4567,33 +4692,33 @@
     <col min="13" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="18">
+    <row r="1" spans="1:12" ht="15" x14ac:dyDescent="0.15">
       <c r="A1" s="24" t="s">
         <v>11</v>
       </c>
       <c r="B1" s="1"/>
       <c r="L1" s="25" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.15">
       <c r="L2" s="3"/>
     </row>
-    <row r="3" spans="1:12" ht="18" customHeight="1">
-      <c r="A3" s="90" t="s">
+    <row r="3" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="107" t="s">
         <v>24</v>
       </c>
-      <c r="B3" s="90"/>
+      <c r="B3" s="107"/>
       <c r="C3" s="26" t="s">
         <v>155</v>
       </c>
       <c r="D3" s="30" t="s">
         <v>23</v>
       </c>
-      <c r="E3" s="87" t="s">
+      <c r="E3" s="104" t="s">
         <v>21</v>
       </c>
-      <c r="F3" s="87"/>
+      <c r="F3" s="104"/>
       <c r="G3" s="31"/>
       <c r="H3" s="31"/>
       <c r="I3" s="32"/>
@@ -4601,21 +4726,21 @@
       <c r="K3" s="4"/>
       <c r="L3" s="25"/>
     </row>
-    <row r="4" spans="1:12" ht="18" customHeight="1">
-      <c r="A4" s="90" t="s">
+    <row r="4" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="107" t="s">
         <v>25</v>
       </c>
-      <c r="B4" s="90"/>
+      <c r="B4" s="107"/>
       <c r="C4" s="26" t="s">
         <v>37</v>
       </c>
       <c r="D4" s="30" t="s">
         <v>12</v>
       </c>
-      <c r="E4" s="87" t="s">
+      <c r="E4" s="104" t="s">
         <v>157</v>
       </c>
-      <c r="F4" s="87"/>
+      <c r="F4" s="104"/>
       <c r="G4" s="31"/>
       <c r="H4" s="31"/>
       <c r="I4" s="32"/>
@@ -4623,7 +4748,7 @@
       <c r="K4" s="4"/>
       <c r="L4" s="25"/>
     </row>
-    <row r="5" spans="1:12" ht="14" thickBot="1">
+    <row r="5" spans="1:12" ht="14" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A5" s="56"/>
       <c r="B5" s="56"/>
       <c r="C5" s="56"/>
@@ -4636,27 +4761,27 @@
       <c r="J5" s="4"/>
       <c r="K5" s="4"/>
     </row>
-    <row r="6" spans="1:12" ht="26.25" customHeight="1">
-      <c r="A6" s="88" t="s">
+    <row r="6" spans="1:12" ht="26.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A6" s="105" t="s">
         <v>93</v>
       </c>
-      <c r="B6" s="89"/>
-      <c r="C6" s="89"/>
+      <c r="B6" s="106"/>
+      <c r="C6" s="106"/>
       <c r="D6" s="42" t="s">
         <v>110</v>
       </c>
-      <c r="E6" s="94" t="s">
+      <c r="E6" s="111" t="s">
         <v>231</v>
       </c>
-      <c r="F6" s="92"/>
-      <c r="G6" s="92"/>
-      <c r="H6" s="92"/>
-      <c r="I6" s="92"/>
-      <c r="J6" s="92"/>
-      <c r="K6" s="92"/>
-      <c r="L6" s="93"/>
-    </row>
-    <row r="7" spans="1:12" ht="21" customHeight="1">
+      <c r="F6" s="109"/>
+      <c r="G6" s="109"/>
+      <c r="H6" s="109"/>
+      <c r="I6" s="109"/>
+      <c r="J6" s="109"/>
+      <c r="K6" s="109"/>
+      <c r="L6" s="110"/>
+    </row>
+    <row r="7" spans="1:12" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="43" t="s">
         <v>62</v>
       </c>
@@ -4694,7 +4819,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="8" spans="1:12" ht="15" customHeight="1">
+    <row r="8" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="45">
         <v>1</v>
       </c>
@@ -4728,77 +4853,77 @@
       </c>
       <c r="L8" s="46"/>
     </row>
-    <row r="9" spans="1:12" ht="15" customHeight="1">
-      <c r="A9" s="45">
+    <row r="9" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A9" s="88"/>
+      <c r="B9" s="89"/>
+      <c r="C9" s="90" t="s">
+        <v>197</v>
+      </c>
+      <c r="D9" s="90" t="s">
+        <v>26</v>
+      </c>
+      <c r="E9" s="90" t="s">
+        <v>27</v>
+      </c>
+      <c r="F9" s="91">
+        <v>50</v>
+      </c>
+      <c r="G9" s="91" t="s">
+        <v>0</v>
+      </c>
+      <c r="H9" s="91" t="s">
+        <v>0</v>
+      </c>
+      <c r="I9" s="92" t="s">
+        <v>0</v>
+      </c>
+      <c r="J9" s="93" t="s">
+        <v>222</v>
+      </c>
+      <c r="K9" s="94" t="s">
+        <v>159</v>
+      </c>
+      <c r="L9" s="95" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A10" s="88"/>
+      <c r="B10" s="89"/>
+      <c r="C10" s="90" t="s">
+        <v>198</v>
+      </c>
+      <c r="D10" s="90" t="s">
+        <v>30</v>
+      </c>
+      <c r="E10" s="90" t="s">
+        <v>27</v>
+      </c>
+      <c r="F10" s="91">
+        <v>255</v>
+      </c>
+      <c r="G10" s="91" t="s">
+        <v>0</v>
+      </c>
+      <c r="H10" s="91" t="s">
+        <v>0</v>
+      </c>
+      <c r="I10" s="92" t="s">
+        <v>0</v>
+      </c>
+      <c r="J10" s="96" t="s">
+        <v>223</v>
+      </c>
+      <c r="K10" s="94" t="s">
+        <v>159</v>
+      </c>
+      <c r="L10" s="95" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" ht="26" x14ac:dyDescent="0.15">
+      <c r="A11" s="45">
         <v>2</v>
-      </c>
-      <c r="B9" s="33"/>
-      <c r="C9" s="17" t="s">
-        <v>197</v>
-      </c>
-      <c r="D9" s="17" t="s">
-        <v>26</v>
-      </c>
-      <c r="E9" s="17" t="s">
-        <v>27</v>
-      </c>
-      <c r="F9" s="18">
-        <v>50</v>
-      </c>
-      <c r="G9" s="18" t="s">
-        <v>0</v>
-      </c>
-      <c r="H9" s="18" t="s">
-        <v>0</v>
-      </c>
-      <c r="I9" s="23" t="s">
-        <v>0</v>
-      </c>
-      <c r="J9" s="21" t="s">
-        <v>222</v>
-      </c>
-      <c r="K9" s="22" t="s">
-        <v>159</v>
-      </c>
-      <c r="L9" s="47"/>
-    </row>
-    <row r="10" spans="1:12" ht="15" customHeight="1">
-      <c r="A10" s="45">
-        <v>3</v>
-      </c>
-      <c r="B10" s="33"/>
-      <c r="C10" s="17" t="s">
-        <v>198</v>
-      </c>
-      <c r="D10" s="17" t="s">
-        <v>30</v>
-      </c>
-      <c r="E10" s="17" t="s">
-        <v>27</v>
-      </c>
-      <c r="F10" s="18">
-        <v>255</v>
-      </c>
-      <c r="G10" s="18" t="s">
-        <v>0</v>
-      </c>
-      <c r="H10" s="18" t="s">
-        <v>0</v>
-      </c>
-      <c r="I10" s="23" t="s">
-        <v>0</v>
-      </c>
-      <c r="J10" s="69" t="s">
-        <v>223</v>
-      </c>
-      <c r="K10" s="22" t="s">
-        <v>159</v>
-      </c>
-      <c r="L10" s="47"/>
-    </row>
-    <row r="11" spans="1:12" ht="25">
-      <c r="A11" s="45">
-        <v>4</v>
       </c>
       <c r="B11" s="33"/>
       <c r="C11" s="17" t="s">
@@ -4830,43 +4955,43 @@
       </c>
       <c r="L11" s="47"/>
     </row>
-    <row r="12" spans="1:12" ht="15" customHeight="1">
-      <c r="A12" s="45">
-        <v>5</v>
-      </c>
-      <c r="B12" s="34"/>
-      <c r="C12" s="17" t="s">
+    <row r="12" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A12" s="88"/>
+      <c r="B12" s="97"/>
+      <c r="C12" s="90" t="s">
         <v>215</v>
       </c>
-      <c r="D12" s="17" t="s">
+      <c r="D12" s="90" t="s">
         <v>96</v>
       </c>
-      <c r="E12" s="17" t="s">
+      <c r="E12" s="90" t="s">
         <v>27</v>
       </c>
-      <c r="F12" s="18">
+      <c r="F12" s="91">
         <v>20</v>
       </c>
-      <c r="G12" s="18" t="s">
-        <v>0</v>
-      </c>
-      <c r="H12" s="18" t="s">
-        <v>0</v>
-      </c>
-      <c r="I12" s="7" t="s">
+      <c r="G12" s="91" t="s">
+        <v>0</v>
+      </c>
+      <c r="H12" s="91" t="s">
+        <v>0</v>
+      </c>
+      <c r="I12" s="98" t="s">
         <v>219</v>
       </c>
-      <c r="J12" s="72" t="s">
+      <c r="J12" s="99" t="s">
         <v>225</v>
       </c>
-      <c r="K12" s="22" t="s">
+      <c r="K12" s="94" t="s">
         <v>159</v>
       </c>
-      <c r="L12" s="47"/>
-    </row>
-    <row r="13" spans="1:12" ht="15" customHeight="1">
+      <c r="L12" s="95" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="45">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B13" s="34"/>
       <c r="C13" s="5" t="s">
@@ -4898,43 +5023,43 @@
       </c>
       <c r="L13" s="47"/>
     </row>
-    <row r="14" spans="1:12" ht="15" customHeight="1">
-      <c r="A14" s="45">
-        <v>7</v>
-      </c>
-      <c r="B14" s="34"/>
-      <c r="C14" s="5" t="s">
+    <row r="14" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A14" s="88"/>
+      <c r="B14" s="97"/>
+      <c r="C14" s="100" t="s">
         <v>200</v>
       </c>
-      <c r="D14" s="5" t="s">
+      <c r="D14" s="100" t="s">
         <v>98</v>
       </c>
-      <c r="E14" s="5" t="s">
+      <c r="E14" s="100" t="s">
         <v>99</v>
       </c>
-      <c r="F14" s="6">
+      <c r="F14" s="101">
         <v>2</v>
       </c>
-      <c r="G14" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="H14" s="18">
-        <v>0</v>
-      </c>
-      <c r="I14" s="7" t="s">
+      <c r="G14" s="101" t="s">
+        <v>0</v>
+      </c>
+      <c r="H14" s="91">
+        <v>0</v>
+      </c>
+      <c r="I14" s="98" t="s">
         <v>188</v>
       </c>
-      <c r="J14" s="68" t="s">
+      <c r="J14" s="102" t="s">
         <v>162</v>
       </c>
-      <c r="K14" s="22" t="s">
+      <c r="K14" s="94" t="s">
         <v>159</v>
       </c>
-      <c r="L14" s="48"/>
-    </row>
-    <row r="15" spans="1:12" ht="15" customHeight="1">
+      <c r="L14" s="95" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="45">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="B15" s="34"/>
       <c r="C15" s="5" t="s">
@@ -4966,9 +5091,9 @@
       </c>
       <c r="L15" s="48"/>
     </row>
-    <row r="16" spans="1:12" ht="25">
+    <row r="16" spans="1:12" ht="26" x14ac:dyDescent="0.15">
       <c r="A16" s="45">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="B16" s="34"/>
       <c r="C16" s="5" t="s">
@@ -5000,9 +5125,9 @@
       </c>
       <c r="L16" s="48"/>
     </row>
-    <row r="17" spans="1:12" ht="15" customHeight="1">
+    <row r="17" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="45">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="B17" s="34"/>
       <c r="C17" s="5" t="s">
@@ -5034,9 +5159,9 @@
       </c>
       <c r="L17" s="48"/>
     </row>
-    <row r="18" spans="1:12">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A18" s="45">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="B18" s="34"/>
       <c r="C18" s="5" t="s">
@@ -5068,9 +5193,9 @@
       </c>
       <c r="L18" s="48"/>
     </row>
-    <row r="19" spans="1:12">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A19" s="45">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="B19" s="34"/>
       <c r="C19" s="5" t="s">
@@ -5102,9 +5227,9 @@
       </c>
       <c r="L19" s="48"/>
     </row>
-    <row r="20" spans="1:12">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A20" s="45">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="B20" s="34"/>
       <c r="C20" s="5" t="s">
@@ -5136,9 +5261,9 @@
       </c>
       <c r="L20" s="48"/>
     </row>
-    <row r="21" spans="1:12">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A21" s="45">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="B21" s="34"/>
       <c r="C21" s="5" t="s">
@@ -5170,9 +5295,9 @@
       </c>
       <c r="L21" s="48"/>
     </row>
-    <row r="22" spans="1:12">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A22" s="45">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="B22" s="34"/>
       <c r="C22" s="5" t="s">
@@ -5204,43 +5329,43 @@
       </c>
       <c r="L22" s="48"/>
     </row>
-    <row r="23" spans="1:12">
-      <c r="A23" s="45">
-        <v>16</v>
-      </c>
-      <c r="B23" s="34"/>
-      <c r="C23" s="5" t="s">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A23" s="88"/>
+      <c r="B23" s="97"/>
+      <c r="C23" s="100" t="s">
         <v>201</v>
       </c>
-      <c r="D23" s="5" t="s">
+      <c r="D23" s="100" t="s">
         <v>203</v>
       </c>
-      <c r="E23" s="5" t="s">
+      <c r="E23" s="100" t="s">
         <v>204</v>
       </c>
-      <c r="F23" s="6">
+      <c r="F23" s="101">
         <v>1</v>
       </c>
-      <c r="G23" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="H23" s="18" t="s">
-        <v>0</v>
-      </c>
-      <c r="I23" s="35" t="s">
+      <c r="G23" s="101" t="s">
+        <v>0</v>
+      </c>
+      <c r="H23" s="91" t="s">
+        <v>0</v>
+      </c>
+      <c r="I23" s="103" t="s">
         <v>205</v>
       </c>
-      <c r="J23" s="68" t="s">
+      <c r="J23" s="102" t="s">
         <v>206</v>
       </c>
-      <c r="K23" s="22" t="s">
+      <c r="K23" s="94" t="s">
         <v>159</v>
       </c>
-      <c r="L23" s="48"/>
-    </row>
-    <row r="24" spans="1:12" ht="25">
+      <c r="L23" s="95" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" ht="26" x14ac:dyDescent="0.15">
       <c r="A24" s="45">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="B24" s="34"/>
       <c r="C24" s="5" t="s">
@@ -5272,9 +5397,9 @@
       </c>
       <c r="L24" s="48"/>
     </row>
-    <row r="25" spans="1:12">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A25" s="45">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="B25" s="34"/>
       <c r="C25" s="5" t="s">
@@ -5306,9 +5431,9 @@
       </c>
       <c r="L25" s="48"/>
     </row>
-    <row r="26" spans="1:12">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A26" s="45">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="B26" s="34"/>
       <c r="C26" s="5" t="s">
@@ -5340,9 +5465,9 @@
       </c>
       <c r="L26" s="48"/>
     </row>
-    <row r="27" spans="1:12" ht="14" thickBot="1">
+    <row r="27" spans="1:12" ht="14" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A27" s="49">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="B27" s="50"/>
       <c r="C27" s="51" t="s">
@@ -5374,46 +5499,46 @@
       </c>
       <c r="L27" s="55"/>
     </row>
-    <row r="28" spans="1:12">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.15">
       <c r="I28" s="65"/>
     </row>
-    <row r="29" spans="1:12">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.15">
       <c r="I29" s="65"/>
     </row>
-    <row r="30" spans="1:12">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.15">
       <c r="I30" s="65"/>
     </row>
-    <row r="31" spans="1:12">
+    <row r="31" spans="1:12" x14ac:dyDescent="0.15">
       <c r="I31" s="65"/>
     </row>
-    <row r="32" spans="1:12">
+    <row r="32" spans="1:12" x14ac:dyDescent="0.15">
       <c r="I32" s="65"/>
     </row>
-    <row r="33" spans="9:9">
+    <row r="33" spans="9:9" x14ac:dyDescent="0.15">
       <c r="I33" s="65"/>
     </row>
-    <row r="34" spans="9:9">
+    <row r="34" spans="9:9" x14ac:dyDescent="0.15">
       <c r="I34" s="65"/>
     </row>
-    <row r="35" spans="9:9">
+    <row r="35" spans="9:9" x14ac:dyDescent="0.15">
       <c r="I35" s="65"/>
     </row>
-    <row r="36" spans="9:9">
+    <row r="36" spans="9:9" x14ac:dyDescent="0.15">
       <c r="I36" s="65"/>
     </row>
-    <row r="37" spans="9:9">
+    <row r="37" spans="9:9" x14ac:dyDescent="0.15">
       <c r="I37" s="65"/>
     </row>
-    <row r="38" spans="9:9">
+    <row r="38" spans="9:9" x14ac:dyDescent="0.15">
       <c r="I38" s="65"/>
     </row>
-    <row r="39" spans="9:9">
+    <row r="39" spans="9:9" x14ac:dyDescent="0.15">
       <c r="I39" s="65"/>
     </row>
-    <row r="40" spans="9:9">
+    <row r="40" spans="9:9" x14ac:dyDescent="0.15">
       <c r="I40" s="65"/>
     </row>
-    <row r="41" spans="9:9">
+    <row r="41" spans="9:9" x14ac:dyDescent="0.15">
       <c r="I41" s="65"/>
     </row>
   </sheetData>
@@ -5435,13 +5560,13 @@
   <legacyDrawing r:id="rId1"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="1" OnePage="0" WScale="0"/>
+      <mx:PLV Mode="1" OnePage="0" WScale="100"/>
     </ext>
   </extLst>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L37"/>
   <sheetViews>
@@ -5449,7 +5574,7 @@
       <selection activeCell="C32" sqref="C32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="12" defaultColWidth="9" defaultRowHeight="13" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="12" defaultColWidth="9" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="4.6640625" style="2" customWidth="1"/>
     <col min="2" max="2" width="6.6640625" style="2" bestFit="1" customWidth="1"/>
@@ -5465,7 +5590,7 @@
     <col min="13" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="18">
+    <row r="1" spans="1:12" ht="15" x14ac:dyDescent="0.15">
       <c r="A1" s="24" t="s">
         <v>11</v>
       </c>
@@ -5474,24 +5599,24 @@
         <v>266</v>
       </c>
     </row>
-    <row r="2" spans="1:12">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.15">
       <c r="L2" s="3"/>
     </row>
-    <row r="3" spans="1:12" ht="18" customHeight="1">
-      <c r="A3" s="90" t="s">
+    <row r="3" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="107" t="s">
         <v>24</v>
       </c>
-      <c r="B3" s="90"/>
+      <c r="B3" s="107"/>
       <c r="C3" s="26" t="s">
         <v>155</v>
       </c>
       <c r="D3" s="30" t="s">
         <v>23</v>
       </c>
-      <c r="E3" s="87" t="s">
+      <c r="E3" s="104" t="s">
         <v>21</v>
       </c>
-      <c r="F3" s="87"/>
+      <c r="F3" s="104"/>
       <c r="G3" s="31"/>
       <c r="H3" s="31"/>
       <c r="I3" s="32"/>
@@ -5499,21 +5624,21 @@
       <c r="K3" s="4"/>
       <c r="L3" s="25"/>
     </row>
-    <row r="4" spans="1:12" ht="18" customHeight="1">
-      <c r="A4" s="90" t="s">
+    <row r="4" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="107" t="s">
         <v>25</v>
       </c>
-      <c r="B4" s="90"/>
+      <c r="B4" s="107"/>
       <c r="C4" s="26" t="s">
         <v>37</v>
       </c>
       <c r="D4" s="30" t="s">
         <v>12</v>
       </c>
-      <c r="E4" s="87" t="s">
+      <c r="E4" s="104" t="s">
         <v>157</v>
       </c>
-      <c r="F4" s="87"/>
+      <c r="F4" s="104"/>
       <c r="G4" s="31"/>
       <c r="H4" s="31"/>
       <c r="I4" s="32"/>
@@ -5521,7 +5646,7 @@
       <c r="K4" s="4"/>
       <c r="L4" s="25"/>
     </row>
-    <row r="5" spans="1:12" ht="14" thickBot="1">
+    <row r="5" spans="1:12" ht="14" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A5" s="56"/>
       <c r="B5" s="56"/>
       <c r="C5" s="56"/>
@@ -5534,27 +5659,27 @@
       <c r="J5" s="4"/>
       <c r="K5" s="4"/>
     </row>
-    <row r="6" spans="1:12" ht="26.25" customHeight="1">
-      <c r="A6" s="88" t="s">
+    <row r="6" spans="1:12" ht="26.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A6" s="105" t="s">
         <v>246</v>
       </c>
-      <c r="B6" s="89"/>
-      <c r="C6" s="89"/>
+      <c r="B6" s="106"/>
+      <c r="C6" s="106"/>
       <c r="D6" s="42" t="s">
         <v>136</v>
       </c>
-      <c r="E6" s="91" t="s">
+      <c r="E6" s="108" t="s">
         <v>249</v>
       </c>
-      <c r="F6" s="92"/>
-      <c r="G6" s="92"/>
-      <c r="H6" s="92"/>
-      <c r="I6" s="92"/>
-      <c r="J6" s="92"/>
-      <c r="K6" s="92"/>
-      <c r="L6" s="93"/>
-    </row>
-    <row r="7" spans="1:12" ht="21" customHeight="1">
+      <c r="F6" s="109"/>
+      <c r="G6" s="109"/>
+      <c r="H6" s="109"/>
+      <c r="I6" s="109"/>
+      <c r="J6" s="109"/>
+      <c r="K6" s="109"/>
+      <c r="L6" s="110"/>
+    </row>
+    <row r="7" spans="1:12" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="43" t="s">
         <v>62</v>
       </c>
@@ -5592,7 +5717,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="8" spans="1:12" ht="15" customHeight="1">
+    <row r="8" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="45">
         <v>1</v>
       </c>
@@ -5626,7 +5751,7 @@
       </c>
       <c r="L8" s="46"/>
     </row>
-    <row r="9" spans="1:12" ht="15" customHeight="1">
+    <row r="9" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="45">
         <v>2</v>
       </c>
@@ -5660,7 +5785,7 @@
       </c>
       <c r="L9" s="47"/>
     </row>
-    <row r="10" spans="1:12" ht="15" customHeight="1">
+    <row r="10" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="45">
         <v>3</v>
       </c>
@@ -5694,7 +5819,7 @@
       </c>
       <c r="L10" s="47"/>
     </row>
-    <row r="11" spans="1:12" ht="15" customHeight="1">
+    <row r="11" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="45">
         <v>4</v>
       </c>
@@ -5728,7 +5853,7 @@
       </c>
       <c r="L11" s="47"/>
     </row>
-    <row r="12" spans="1:12" ht="37">
+    <row r="12" spans="1:12" ht="39" x14ac:dyDescent="0.15">
       <c r="A12" s="45">
         <v>5</v>
       </c>
@@ -5762,7 +5887,7 @@
       </c>
       <c r="L12" s="47"/>
     </row>
-    <row r="13" spans="1:12" ht="37">
+    <row r="13" spans="1:12" ht="39" x14ac:dyDescent="0.15">
       <c r="A13" s="45">
         <v>6</v>
       </c>
@@ -5796,7 +5921,7 @@
       </c>
       <c r="L13" s="47"/>
     </row>
-    <row r="14" spans="1:12" ht="15" customHeight="1">
+    <row r="14" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="45">
         <v>7</v>
       </c>
@@ -5830,7 +5955,7 @@
       </c>
       <c r="L14" s="47"/>
     </row>
-    <row r="15" spans="1:12" ht="15" customHeight="1">
+    <row r="15" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="45">
         <v>8</v>
       </c>
@@ -5864,7 +5989,7 @@
       </c>
       <c r="L15" s="48"/>
     </row>
-    <row r="16" spans="1:12">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A16" s="45">
         <v>9</v>
       </c>
@@ -5898,7 +6023,7 @@
       </c>
       <c r="L16" s="48"/>
     </row>
-    <row r="17" spans="1:12" ht="15" customHeight="1">
+    <row r="17" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="45">
         <v>10</v>
       </c>
@@ -5932,7 +6057,7 @@
       </c>
       <c r="L17" s="48"/>
     </row>
-    <row r="18" spans="1:12" ht="37">
+    <row r="18" spans="1:12" ht="39" x14ac:dyDescent="0.15">
       <c r="A18" s="45">
         <v>11</v>
       </c>
@@ -5966,7 +6091,7 @@
       </c>
       <c r="L18" s="48"/>
     </row>
-    <row r="19" spans="1:12" ht="37">
+    <row r="19" spans="1:12" ht="39" x14ac:dyDescent="0.15">
       <c r="A19" s="45">
         <v>12</v>
       </c>
@@ -6000,7 +6125,7 @@
       </c>
       <c r="L19" s="48"/>
     </row>
-    <row r="20" spans="1:12">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A20" s="45">
         <v>13</v>
       </c>
@@ -6034,7 +6159,7 @@
       </c>
       <c r="L20" s="48"/>
     </row>
-    <row r="21" spans="1:12" ht="13" customHeight="1">
+    <row r="21" spans="1:12" ht="13" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="45">
         <v>14</v>
       </c>
@@ -6068,7 +6193,7 @@
       </c>
       <c r="L21" s="48"/>
     </row>
-    <row r="22" spans="1:12" ht="13" customHeight="1">
+    <row r="22" spans="1:12" ht="13" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="45">
         <v>15</v>
       </c>
@@ -6102,7 +6227,7 @@
       </c>
       <c r="L22" s="48"/>
     </row>
-    <row r="23" spans="1:12" ht="25">
+    <row r="23" spans="1:12" ht="26" x14ac:dyDescent="0.15">
       <c r="A23" s="45">
         <v>16</v>
       </c>
@@ -6138,7 +6263,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="24" spans="1:12">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A24" s="45">
         <v>17</v>
       </c>
@@ -6172,7 +6297,7 @@
       </c>
       <c r="L24" s="48"/>
     </row>
-    <row r="25" spans="1:12" ht="14" thickBot="1">
+    <row r="25" spans="1:12" ht="14" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A25" s="49">
         <v>18</v>
       </c>
@@ -6206,40 +6331,40 @@
       </c>
       <c r="L25" s="55"/>
     </row>
-    <row r="26" spans="1:12">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.15">
       <c r="I26" s="65"/>
     </row>
-    <row r="27" spans="1:12">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.15">
       <c r="I27" s="65"/>
     </row>
-    <row r="28" spans="1:12">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.15">
       <c r="I28" s="65"/>
     </row>
-    <row r="29" spans="1:12">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.15">
       <c r="I29" s="65"/>
     </row>
-    <row r="30" spans="1:12">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.15">
       <c r="I30" s="65"/>
     </row>
-    <row r="31" spans="1:12">
+    <row r="31" spans="1:12" x14ac:dyDescent="0.15">
       <c r="I31" s="65"/>
     </row>
-    <row r="32" spans="1:12">
+    <row r="32" spans="1:12" x14ac:dyDescent="0.15">
       <c r="I32" s="65"/>
     </row>
-    <row r="33" spans="9:9">
+    <row r="33" spans="9:9" x14ac:dyDescent="0.15">
       <c r="I33" s="65"/>
     </row>
-    <row r="34" spans="9:9">
+    <row r="34" spans="9:9" x14ac:dyDescent="0.15">
       <c r="I34" s="65"/>
     </row>
-    <row r="35" spans="9:9">
+    <row r="35" spans="9:9" x14ac:dyDescent="0.15">
       <c r="I35" s="65"/>
     </row>
-    <row r="36" spans="9:9">
+    <row r="36" spans="9:9" x14ac:dyDescent="0.15">
       <c r="I36" s="65"/>
     </row>
-    <row r="37" spans="9:9">
+    <row r="37" spans="9:9" x14ac:dyDescent="0.15">
       <c r="I37" s="65"/>
     </row>
   </sheetData>
@@ -6261,21 +6386,21 @@
   <legacyDrawing r:id="rId1"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="1" OnePage="0" WScale="0"/>
+      <mx:PLV Mode="1" OnePage="0" WScale="100"/>
     </ext>
   </extLst>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L28"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageLayout" workbookViewId="0">
+    <sheetView view="pageLayout" workbookViewId="0">
       <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="12" defaultColWidth="9" defaultRowHeight="13" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="12" defaultColWidth="9" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="4.6640625" style="2" customWidth="1"/>
     <col min="2" max="2" width="6.6640625" style="2" bestFit="1" customWidth="1"/>
@@ -6291,7 +6416,7 @@
     <col min="13" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="18">
+    <row r="1" spans="1:12" ht="15" x14ac:dyDescent="0.15">
       <c r="A1" s="24" t="s">
         <v>11</v>
       </c>
@@ -6300,24 +6425,24 @@
         <v>266</v>
       </c>
     </row>
-    <row r="2" spans="1:12">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.15">
       <c r="L2" s="3"/>
     </row>
-    <row r="3" spans="1:12" ht="18" customHeight="1">
-      <c r="A3" s="90" t="s">
+    <row r="3" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="107" t="s">
         <v>24</v>
       </c>
-      <c r="B3" s="90"/>
+      <c r="B3" s="107"/>
       <c r="C3" s="26" t="s">
         <v>155</v>
       </c>
       <c r="D3" s="30" t="s">
         <v>23</v>
       </c>
-      <c r="E3" s="87" t="s">
+      <c r="E3" s="104" t="s">
         <v>21</v>
       </c>
-      <c r="F3" s="87"/>
+      <c r="F3" s="104"/>
       <c r="G3" s="31"/>
       <c r="H3" s="31"/>
       <c r="I3" s="32"/>
@@ -6325,21 +6450,21 @@
       <c r="K3" s="4"/>
       <c r="L3" s="25"/>
     </row>
-    <row r="4" spans="1:12" ht="18" customHeight="1">
-      <c r="A4" s="90" t="s">
+    <row r="4" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="107" t="s">
         <v>25</v>
       </c>
-      <c r="B4" s="90"/>
+      <c r="B4" s="107"/>
       <c r="C4" s="26" t="s">
         <v>37</v>
       </c>
       <c r="D4" s="30" t="s">
         <v>12</v>
       </c>
-      <c r="E4" s="87" t="s">
+      <c r="E4" s="104" t="s">
         <v>157</v>
       </c>
-      <c r="F4" s="87"/>
+      <c r="F4" s="104"/>
       <c r="G4" s="31"/>
       <c r="H4" s="31"/>
       <c r="I4" s="32"/>
@@ -6347,7 +6472,7 @@
       <c r="K4" s="4"/>
       <c r="L4" s="25"/>
     </row>
-    <row r="5" spans="1:12" ht="14" thickBot="1">
+    <row r="5" spans="1:12" ht="14" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A5" s="56"/>
       <c r="B5" s="56"/>
       <c r="C5" s="56"/>
@@ -6360,27 +6485,27 @@
       <c r="J5" s="4"/>
       <c r="K5" s="4"/>
     </row>
-    <row r="6" spans="1:12" ht="26.25" customHeight="1">
-      <c r="A6" s="88" t="s">
+    <row r="6" spans="1:12" ht="26.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A6" s="105" t="s">
         <v>250</v>
       </c>
-      <c r="B6" s="89"/>
-      <c r="C6" s="89"/>
+      <c r="B6" s="106"/>
+      <c r="C6" s="106"/>
       <c r="D6" s="42" t="s">
         <v>149</v>
       </c>
-      <c r="E6" s="94" t="s">
+      <c r="E6" s="111" t="s">
         <v>251</v>
       </c>
-      <c r="F6" s="92"/>
-      <c r="G6" s="92"/>
-      <c r="H6" s="92"/>
-      <c r="I6" s="92"/>
-      <c r="J6" s="92"/>
-      <c r="K6" s="92"/>
-      <c r="L6" s="93"/>
-    </row>
-    <row r="7" spans="1:12" ht="21" customHeight="1">
+      <c r="F6" s="109"/>
+      <c r="G6" s="109"/>
+      <c r="H6" s="109"/>
+      <c r="I6" s="109"/>
+      <c r="J6" s="109"/>
+      <c r="K6" s="109"/>
+      <c r="L6" s="110"/>
+    </row>
+    <row r="7" spans="1:12" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="43" t="s">
         <v>6</v>
       </c>
@@ -6418,7 +6543,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="8" spans="1:12" ht="15" customHeight="1">
+    <row r="8" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="45">
         <v>1</v>
       </c>
@@ -6452,7 +6577,7 @@
       </c>
       <c r="L8" s="46"/>
     </row>
-    <row r="9" spans="1:12" ht="15" customHeight="1">
+    <row r="9" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="45">
         <v>2</v>
       </c>
@@ -6486,7 +6611,7 @@
       </c>
       <c r="L9" s="47"/>
     </row>
-    <row r="10" spans="1:12" ht="15" customHeight="1">
+    <row r="10" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="45">
         <v>3</v>
       </c>
@@ -6520,7 +6645,7 @@
       </c>
       <c r="L10" s="47"/>
     </row>
-    <row r="11" spans="1:12" ht="15" customHeight="1">
+    <row r="11" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="45">
         <v>4</v>
       </c>
@@ -6554,7 +6679,7 @@
       </c>
       <c r="L11" s="47"/>
     </row>
-    <row r="12" spans="1:12" ht="14" thickBot="1">
+    <row r="12" spans="1:12" ht="14" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A12" s="49">
         <v>5</v>
       </c>
@@ -6588,7 +6713,7 @@
       </c>
       <c r="L12" s="55"/>
     </row>
-    <row r="13" spans="1:12" ht="15" customHeight="1">
+    <row r="13" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="12"/>
       <c r="B13" s="36"/>
       <c r="C13" s="12"/>
@@ -6602,49 +6727,49 @@
       <c r="K13" s="40"/>
       <c r="L13" s="38"/>
     </row>
-    <row r="14" spans="1:12">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.15">
       <c r="I14" s="65"/>
     </row>
-    <row r="15" spans="1:12">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.15">
       <c r="I15" s="65"/>
     </row>
-    <row r="16" spans="1:12">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.15">
       <c r="I16" s="65"/>
     </row>
-    <row r="17" spans="9:9">
+    <row r="17" spans="9:9" x14ac:dyDescent="0.15">
       <c r="I17" s="65"/>
     </row>
-    <row r="18" spans="9:9">
+    <row r="18" spans="9:9" x14ac:dyDescent="0.15">
       <c r="I18" s="65"/>
     </row>
-    <row r="19" spans="9:9">
+    <row r="19" spans="9:9" x14ac:dyDescent="0.15">
       <c r="I19" s="65"/>
     </row>
-    <row r="20" spans="9:9">
+    <row r="20" spans="9:9" x14ac:dyDescent="0.15">
       <c r="I20" s="65"/>
     </row>
-    <row r="21" spans="9:9">
+    <row r="21" spans="9:9" x14ac:dyDescent="0.15">
       <c r="I21" s="65"/>
     </row>
-    <row r="22" spans="9:9">
+    <row r="22" spans="9:9" x14ac:dyDescent="0.15">
       <c r="I22" s="65"/>
     </row>
-    <row r="23" spans="9:9">
+    <row r="23" spans="9:9" x14ac:dyDescent="0.15">
       <c r="I23" s="65"/>
     </row>
-    <row r="24" spans="9:9">
+    <row r="24" spans="9:9" x14ac:dyDescent="0.15">
       <c r="I24" s="65"/>
     </row>
-    <row r="25" spans="9:9">
+    <row r="25" spans="9:9" x14ac:dyDescent="0.15">
       <c r="I25" s="65"/>
     </row>
-    <row r="26" spans="9:9">
+    <row r="26" spans="9:9" x14ac:dyDescent="0.15">
       <c r="I26" s="65"/>
     </row>
-    <row r="27" spans="9:9">
+    <row r="27" spans="9:9" x14ac:dyDescent="0.15">
       <c r="I27" s="65"/>
     </row>
-    <row r="28" spans="9:9">
+    <row r="28" spans="9:9" x14ac:dyDescent="0.15">
       <c r="I28" s="65"/>
     </row>
   </sheetData>
@@ -6666,13 +6791,13 @@
   <legacyDrawing r:id="rId1"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="1" OnePage="0" WScale="0"/>
+      <mx:PLV Mode="1" OnePage="0" WScale="100"/>
     </ext>
   </extLst>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L36"/>
   <sheetViews>
@@ -6680,7 +6805,7 @@
       <selection activeCell="L2" sqref="L2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="12" defaultColWidth="9" defaultRowHeight="13" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="12" defaultColWidth="9" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="4.6640625" style="2" customWidth="1"/>
     <col min="2" max="2" width="6.6640625" style="2" bestFit="1" customWidth="1"/>
@@ -6696,7 +6821,7 @@
     <col min="13" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="18">
+    <row r="1" spans="1:12" ht="15" x14ac:dyDescent="0.15">
       <c r="A1" s="24" t="s">
         <v>11</v>
       </c>
@@ -6705,24 +6830,24 @@
         <v>266</v>
       </c>
     </row>
-    <row r="2" spans="1:12">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.15">
       <c r="L2" s="3"/>
     </row>
-    <row r="3" spans="1:12" ht="18" customHeight="1">
-      <c r="A3" s="90" t="s">
+    <row r="3" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="107" t="s">
         <v>24</v>
       </c>
-      <c r="B3" s="90"/>
+      <c r="B3" s="107"/>
       <c r="C3" s="26" t="s">
         <v>155</v>
       </c>
       <c r="D3" s="30" t="s">
         <v>23</v>
       </c>
-      <c r="E3" s="87" t="s">
+      <c r="E3" s="104" t="s">
         <v>21</v>
       </c>
-      <c r="F3" s="87"/>
+      <c r="F3" s="104"/>
       <c r="G3" s="31"/>
       <c r="H3" s="31"/>
       <c r="I3" s="32"/>
@@ -6730,21 +6855,21 @@
       <c r="K3" s="4"/>
       <c r="L3" s="25"/>
     </row>
-    <row r="4" spans="1:12" ht="18" customHeight="1">
-      <c r="A4" s="90" t="s">
+    <row r="4" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="107" t="s">
         <v>25</v>
       </c>
-      <c r="B4" s="90"/>
+      <c r="B4" s="107"/>
       <c r="C4" s="26" t="s">
         <v>37</v>
       </c>
       <c r="D4" s="30" t="s">
         <v>12</v>
       </c>
-      <c r="E4" s="87" t="s">
+      <c r="E4" s="104" t="s">
         <v>157</v>
       </c>
-      <c r="F4" s="87"/>
+      <c r="F4" s="104"/>
       <c r="G4" s="31"/>
       <c r="H4" s="31"/>
       <c r="I4" s="32"/>
@@ -6752,7 +6877,7 @@
       <c r="K4" s="4"/>
       <c r="L4" s="25"/>
     </row>
-    <row r="5" spans="1:12" ht="14" thickBot="1">
+    <row r="5" spans="1:12" ht="14" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A5" s="56"/>
       <c r="B5" s="56"/>
       <c r="C5" s="56"/>
@@ -6765,27 +6890,27 @@
       <c r="J5" s="4"/>
       <c r="K5" s="4"/>
     </row>
-    <row r="6" spans="1:12" ht="26.25" customHeight="1">
-      <c r="A6" s="88" t="s">
+    <row r="6" spans="1:12" ht="26.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A6" s="105" t="s">
         <v>150</v>
       </c>
-      <c r="B6" s="89"/>
-      <c r="C6" s="89"/>
+      <c r="B6" s="106"/>
+      <c r="C6" s="106"/>
       <c r="D6" s="42" t="s">
         <v>153</v>
       </c>
-      <c r="E6" s="94" t="s">
+      <c r="E6" s="111" t="s">
         <v>252</v>
       </c>
-      <c r="F6" s="92"/>
-      <c r="G6" s="92"/>
-      <c r="H6" s="92"/>
-      <c r="I6" s="92"/>
-      <c r="J6" s="92"/>
-      <c r="K6" s="92"/>
-      <c r="L6" s="93"/>
-    </row>
-    <row r="7" spans="1:12" ht="21" customHeight="1">
+      <c r="F6" s="109"/>
+      <c r="G6" s="109"/>
+      <c r="H6" s="109"/>
+      <c r="I6" s="109"/>
+      <c r="J6" s="109"/>
+      <c r="K6" s="109"/>
+      <c r="L6" s="110"/>
+    </row>
+    <row r="7" spans="1:12" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="43" t="s">
         <v>62</v>
       </c>
@@ -6823,7 +6948,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="8" spans="1:12" ht="15" customHeight="1">
+    <row r="8" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="45">
         <v>1</v>
       </c>
@@ -6857,7 +6982,7 @@
       </c>
       <c r="L8" s="47"/>
     </row>
-    <row r="9" spans="1:12" ht="18" customHeight="1">
+    <row r="9" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="45">
         <v>2</v>
       </c>
@@ -6891,7 +7016,7 @@
       </c>
       <c r="L9" s="47"/>
     </row>
-    <row r="10" spans="1:12" ht="15" customHeight="1">
+    <row r="10" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="45">
         <v>3</v>
       </c>
@@ -6925,7 +7050,7 @@
       </c>
       <c r="L10" s="47"/>
     </row>
-    <row r="11" spans="1:12" ht="15" customHeight="1" thickBot="1">
+    <row r="11" spans="1:12" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A11" s="57">
         <v>4</v>
       </c>
@@ -6959,7 +7084,7 @@
       </c>
       <c r="L11" s="60"/>
     </row>
-    <row r="12" spans="1:12">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A12" s="12"/>
       <c r="B12" s="12"/>
       <c r="C12" s="13"/>
@@ -6973,76 +7098,76 @@
       <c r="K12" s="15"/>
       <c r="L12" s="12"/>
     </row>
-    <row r="13" spans="1:12">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.15">
       <c r="I13" s="65"/>
     </row>
-    <row r="14" spans="1:12">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.15">
       <c r="I14" s="65"/>
     </row>
-    <row r="15" spans="1:12">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.15">
       <c r="I15" s="65"/>
     </row>
-    <row r="16" spans="1:12">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.15">
       <c r="I16" s="65"/>
     </row>
-    <row r="17" spans="9:9">
+    <row r="17" spans="9:9" x14ac:dyDescent="0.15">
       <c r="I17" s="65"/>
     </row>
-    <row r="18" spans="9:9">
+    <row r="18" spans="9:9" x14ac:dyDescent="0.15">
       <c r="I18" s="65"/>
     </row>
-    <row r="19" spans="9:9">
+    <row r="19" spans="9:9" x14ac:dyDescent="0.15">
       <c r="I19" s="65"/>
     </row>
-    <row r="20" spans="9:9">
+    <row r="20" spans="9:9" x14ac:dyDescent="0.15">
       <c r="I20" s="65"/>
     </row>
-    <row r="21" spans="9:9">
+    <row r="21" spans="9:9" x14ac:dyDescent="0.15">
       <c r="I21" s="65"/>
     </row>
-    <row r="22" spans="9:9">
+    <row r="22" spans="9:9" x14ac:dyDescent="0.15">
       <c r="I22" s="65"/>
     </row>
-    <row r="23" spans="9:9">
+    <row r="23" spans="9:9" x14ac:dyDescent="0.15">
       <c r="I23" s="65"/>
     </row>
-    <row r="24" spans="9:9">
+    <row r="24" spans="9:9" x14ac:dyDescent="0.15">
       <c r="I24" s="65"/>
     </row>
-    <row r="25" spans="9:9">
+    <row r="25" spans="9:9" x14ac:dyDescent="0.15">
       <c r="I25" s="65"/>
     </row>
-    <row r="26" spans="9:9">
+    <row r="26" spans="9:9" x14ac:dyDescent="0.15">
       <c r="I26" s="65"/>
     </row>
-    <row r="27" spans="9:9">
+    <row r="27" spans="9:9" x14ac:dyDescent="0.15">
       <c r="I27" s="65"/>
     </row>
-    <row r="28" spans="9:9">
+    <row r="28" spans="9:9" x14ac:dyDescent="0.15">
       <c r="I28" s="65"/>
     </row>
-    <row r="29" spans="9:9">
+    <row r="29" spans="9:9" x14ac:dyDescent="0.15">
       <c r="I29" s="65"/>
     </row>
-    <row r="30" spans="9:9">
+    <row r="30" spans="9:9" x14ac:dyDescent="0.15">
       <c r="I30" s="65"/>
     </row>
-    <row r="31" spans="9:9">
+    <row r="31" spans="9:9" x14ac:dyDescent="0.15">
       <c r="I31" s="65"/>
     </row>
-    <row r="32" spans="9:9">
+    <row r="32" spans="9:9" x14ac:dyDescent="0.15">
       <c r="I32" s="65"/>
     </row>
-    <row r="33" spans="9:9">
+    <row r="33" spans="9:9" x14ac:dyDescent="0.15">
       <c r="I33" s="65"/>
     </row>
-    <row r="34" spans="9:9">
+    <row r="34" spans="9:9" x14ac:dyDescent="0.15">
       <c r="I34" s="65"/>
     </row>
-    <row r="35" spans="9:9">
+    <row r="35" spans="9:9" x14ac:dyDescent="0.15">
       <c r="I35" s="65"/>
     </row>
-    <row r="36" spans="9:9">
+    <row r="36" spans="9:9" x14ac:dyDescent="0.15">
       <c r="I36" s="65"/>
     </row>
   </sheetData>
@@ -7064,7 +7189,7 @@
   <legacyDrawing r:id="rId1"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="1" OnePage="0" WScale="0"/>
+      <mx:PLV Mode="1" OnePage="0" WScale="100"/>
     </ext>
   </extLst>
 </worksheet>
